--- a/biology/Botanique/Calochortus/Calochortus.xlsx
+++ b/biology/Botanique/Calochortus/Calochortus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calochortus est un genre d'environ 60 espèces de plantes monocotylédones de la famille des Liliaceae. Ce sont des plantes herbacées élancées des régions tempérées d'Amérique du Nord et d'Amérique centrale.
-Dans la classification de Dahlgren, ce genre est élevé au rang de famille, les Calochortaceae. Toutefois, cette famille n'existe ni dans la classification classique (1981) ni dans la classification phylogénétique APG III (2009)[1]. Ces classifications placent le genre Calochortus dans les Liliaceae.
+Dans la classification de Dahlgren, ce genre est élevé au rang de famille, les Calochortaceae. Toutefois, cette famille n'existe ni dans la classification classique (1981) ni dans la classification phylogénétique APG III (2009). Ces classifications placent le genre Calochortus dans les Liliaceae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Calochortus albus (Benth.) Douglas ex Benth.
 Calochortus aureus S.Watson
